--- a/teszesetek.xlsx
+++ b/teszesetek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IlyésBorbála(SZF_202\Documents\Ilyés Borbála\teszteles\TesztGyak2_JS_2025.02.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4125B2F-F88D-439C-90C7-EC62C155EEC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B9499B-E599-4F46-B969-E47BBA3E544B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{6259A6DE-8CF6-4CD1-B7CA-54F40E9986FF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>viszatérési érték</t>
+  </si>
+  <si>
+    <t>vart</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F776669-0E45-414D-BD69-68556B8B87AE}">
-  <dimension ref="A3:M30"/>
+  <dimension ref="A2:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +490,19 @@
     <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -495,6 +510,10 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>300</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -502,6 +521,10 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>400</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -509,6 +532,10 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -516,6 +543,10 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>301</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -523,6 +554,10 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>321</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -530,6 +565,10 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>1111111111</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -537,6 +576,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -544,6 +585,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -551,6 +594,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -571,8 +616,8 @@
         <v>3</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -591,8 +636,8 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -611,8 +656,8 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -631,8 +676,8 @@
         <v>3</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -645,8 +690,8 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -665,8 +710,8 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -683,8 +728,8 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -703,8 +748,8 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -725,8 +770,8 @@
         <v>9</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
